--- a/Code/Results/Cases/Case_5_219/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_219/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.04911601560833</v>
+        <v>18.08625015614325</v>
       </c>
       <c r="C2">
-        <v>12.43122091442275</v>
+        <v>9.738717452883067</v>
       </c>
       <c r="D2">
-        <v>4.758305297469332</v>
+        <v>7.997305569775516</v>
       </c>
       <c r="E2">
-        <v>7.583746059099844</v>
+        <v>12.98521812365697</v>
       </c>
       <c r="F2">
-        <v>23.78851575382762</v>
+        <v>36.90534111957079</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.148323721304014</v>
+        <v>10.22553441222674</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.675145971838764</v>
+        <v>10.92129140794003</v>
       </c>
       <c r="M2">
-        <v>12.92276729078541</v>
+        <v>16.81086850035017</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>17.86119672746421</v>
+        <v>28.45777371119365</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.67797993839953</v>
+        <v>17.64250469793264</v>
       </c>
       <c r="C3">
-        <v>11.91017985311521</v>
+        <v>9.515025990553843</v>
       </c>
       <c r="D3">
-        <v>4.70256411213735</v>
+        <v>7.999093464023706</v>
       </c>
       <c r="E3">
-        <v>7.67104396892834</v>
+        <v>13.02009814429155</v>
       </c>
       <c r="F3">
-        <v>23.72891438083316</v>
+        <v>37.0406313354654</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.210429091485379</v>
+        <v>10.24710118614279</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.558345118579839</v>
+        <v>10.91766058614524</v>
       </c>
       <c r="M3">
-        <v>12.32869039766829</v>
+        <v>16.70607724895481</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>17.91056053023735</v>
+        <v>28.57547145604962</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.79466055418835</v>
+        <v>17.36624223006096</v>
       </c>
       <c r="C4">
-        <v>11.57885881090343</v>
+        <v>9.374347221146962</v>
       </c>
       <c r="D4">
-        <v>4.669270886588868</v>
+        <v>8.000850131173173</v>
       </c>
       <c r="E4">
-        <v>7.726659784694339</v>
+        <v>13.04269451355871</v>
       </c>
       <c r="F4">
-        <v>23.71713037442158</v>
+        <v>37.13270598905642</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.249634393439521</v>
+        <v>10.26102417996165</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.487518934918087</v>
+        <v>10.91645423496703</v>
       </c>
       <c r="M4">
-        <v>11.95246985135442</v>
+        <v>16.64321381675943</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>17.95957109765597</v>
+        <v>28.65438626626417</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.42326501688331</v>
+        <v>17.25286273582108</v>
       </c>
       <c r="C5">
-        <v>11.44109961553893</v>
+        <v>9.316240138901613</v>
       </c>
       <c r="D5">
-        <v>4.655944845777435</v>
+        <v>8.001732233848667</v>
       </c>
       <c r="E5">
-        <v>7.749834669110263</v>
+        <v>13.05220020832657</v>
       </c>
       <c r="F5">
-        <v>23.71833217854632</v>
+        <v>37.17248566416525</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.265887218734013</v>
+        <v>10.26686966170441</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.458905682684635</v>
+        <v>10.91622105425582</v>
       </c>
       <c r="M5">
-        <v>11.79645785668094</v>
+        <v>16.61798642928898</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>17.98403565996761</v>
+        <v>28.68821249252116</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.36090637289117</v>
+        <v>17.23399251259574</v>
       </c>
       <c r="C6">
-        <v>11.41806310970832</v>
+        <v>9.306546200830699</v>
       </c>
       <c r="D6">
-        <v>4.653746830946239</v>
+        <v>8.001888763253156</v>
       </c>
       <c r="E6">
-        <v>7.753713831623947</v>
+        <v>13.05379661286617</v>
       </c>
       <c r="F6">
-        <v>23.71888735158711</v>
+        <v>37.17922727479143</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.268602869076791</v>
+        <v>10.26785068826062</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.454170250575918</v>
+        <v>10.91619797577651</v>
       </c>
       <c r="M6">
-        <v>11.77039503187986</v>
+        <v>16.61382151245772</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>17.98836320565849</v>
+        <v>28.69392992849923</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.78969800202889</v>
+        <v>17.36471618393429</v>
       </c>
       <c r="C7">
-        <v>11.57701187209843</v>
+        <v>9.373566644749017</v>
       </c>
       <c r="D7">
-        <v>4.669090181391777</v>
+        <v>8.000861353655701</v>
       </c>
       <c r="E7">
-        <v>7.726970254496851</v>
+        <v>13.04282150509225</v>
       </c>
       <c r="F7">
-        <v>23.71712258851773</v>
+        <v>37.13323333531011</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.249852457150837</v>
+        <v>10.26110231806797</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.487132005056129</v>
+        <v>10.9164500423757</v>
       </c>
       <c r="M7">
-        <v>11.95037648671954</v>
+        <v>16.64287198890557</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>17.95988312204381</v>
+        <v>28.65483571090583</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.58133054057032</v>
+        <v>17.93412649843798</v>
       </c>
       <c r="C8">
-        <v>12.25400008645009</v>
+        <v>9.662314023781253</v>
       </c>
       <c r="D8">
-        <v>4.738896436335838</v>
+        <v>7.997785624862069</v>
       </c>
       <c r="E8">
-        <v>7.613430941231226</v>
+        <v>12.99700034779667</v>
       </c>
       <c r="F8">
-        <v>23.76267639374042</v>
+        <v>36.95011639964445</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.169519212773181</v>
+        <v>10.23282963271189</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.634703352631812</v>
+        <v>10.91982790202492</v>
       </c>
       <c r="M8">
-        <v>12.72040711346115</v>
+        <v>16.77444057034852</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>17.87420903281983</v>
+        <v>28.49697380729973</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.84545660847012</v>
+        <v>19.01415583286884</v>
       </c>
       <c r="C9">
-        <v>13.48665542254589</v>
+        <v>10.19972357362072</v>
       </c>
       <c r="D9">
-        <v>4.882879432757522</v>
+        <v>7.996957290825876</v>
       </c>
       <c r="E9">
-        <v>7.406560767929713</v>
+        <v>12.91647073980015</v>
       </c>
       <c r="F9">
-        <v>24.05896151436725</v>
+        <v>36.66274751145453</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.020174930519161</v>
+        <v>10.1827654314856</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.9300698318641</v>
+        <v>10.93451580147236</v>
       </c>
       <c r="M9">
-        <v>14.13298546019385</v>
+        <v>17.04336286279494</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>17.86403783592378</v>
+        <v>28.24032636897388</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.01096973124248</v>
+        <v>19.77736692925943</v>
       </c>
       <c r="C10">
-        <v>14.32967314330125</v>
+        <v>10.57403431950758</v>
       </c>
       <c r="D10">
-        <v>4.992591701728507</v>
+        <v>7.999487087164724</v>
       </c>
       <c r="E10">
-        <v>7.263903336727679</v>
+        <v>12.86293971281614</v>
       </c>
       <c r="F10">
-        <v>24.41588053092075</v>
+        <v>36.49569197463769</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.914972188210207</v>
+        <v>10.14922801773629</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>7.149335685645439</v>
+        <v>10.95014996457139</v>
       </c>
       <c r="M10">
-        <v>15.10440865863082</v>
+        <v>17.24647410129748</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>17.96569786282722</v>
+        <v>28.08425919176382</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.9446551755894</v>
+        <v>20.11649095246747</v>
       </c>
       <c r="C11">
-        <v>14.69889530778421</v>
+        <v>10.73930793975763</v>
       </c>
       <c r="D11">
-        <v>5.043275829940338</v>
+        <v>8.001311853207463</v>
       </c>
       <c r="E11">
-        <v>7.20096759480615</v>
+        <v>12.83979961382768</v>
       </c>
       <c r="F11">
-        <v>24.61105611574609</v>
+        <v>36.42933460500373</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.867983403737228</v>
+        <v>10.13466829144124</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>7.249307099182499</v>
+        <v>10.95829715904485</v>
       </c>
       <c r="M11">
-        <v>15.53089180786921</v>
+        <v>17.33983062985395</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>18.03837666956329</v>
+        <v>28.02036374992901</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.29092627692339</v>
+        <v>20.24363613226981</v>
       </c>
       <c r="C12">
-        <v>14.83661758792431</v>
+        <v>10.80113195028808</v>
       </c>
       <c r="D12">
-        <v>5.062573794036281</v>
+        <v>8.002099062000571</v>
       </c>
       <c r="E12">
-        <v>7.177412300111762</v>
+        <v>12.83121044968222</v>
       </c>
       <c r="F12">
-        <v>24.68987622749615</v>
+        <v>36.40559796223476</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.850305158601128</v>
+        <v>10.12925452808322</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>7.28717572537938</v>
+        <v>10.96152957711779</v>
       </c>
       <c r="M12">
-        <v>15.69011189599536</v>
+        <v>17.37529927681542</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>18.06991925375244</v>
+        <v>27.99719315660426</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.21667345217316</v>
+        <v>20.21631150781764</v>
       </c>
       <c r="C13">
-        <v>14.80705030982245</v>
+        <v>10.78785154747384</v>
       </c>
       <c r="D13">
-        <v>5.058413060559416</v>
+        <v>8.001925255031688</v>
       </c>
       <c r="E13">
-        <v>7.182473105076236</v>
+        <v>12.83305257517595</v>
       </c>
       <c r="F13">
-        <v>24.67267952000139</v>
+        <v>36.41064810084859</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.854107510967966</v>
+        <v>10.130416052837</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>7.279019834426931</v>
+        <v>10.96082689513907</v>
       </c>
       <c r="M13">
-        <v>15.65592320671569</v>
+        <v>17.3676556291827</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>18.06294372282474</v>
+        <v>28.00213769526436</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.97328873904094</v>
+        <v>20.12697741001229</v>
       </c>
       <c r="C14">
-        <v>14.71026797033534</v>
+        <v>10.7444097297568</v>
       </c>
       <c r="D14">
-        <v>5.044861416304275</v>
+        <v>8.001374693286428</v>
       </c>
       <c r="E14">
-        <v>7.199024159957319</v>
+        <v>12.83908950520639</v>
       </c>
       <c r="F14">
-        <v>24.61744119782764</v>
+        <v>36.42735385899771</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.866526747933601</v>
+        <v>10.13422090270672</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>7.252422453790324</v>
+        <v>10.95856015026626</v>
       </c>
       <c r="M14">
-        <v>15.54403692709358</v>
+        <v>17.34274644454404</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>18.04088987396545</v>
+        <v>28.01843692046532</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.82326149565721</v>
+        <v>20.07208859522178</v>
       </c>
       <c r="C15">
-        <v>14.65071223253178</v>
+        <v>10.71769999609069</v>
       </c>
       <c r="D15">
-        <v>5.03657413120481</v>
+        <v>8.001049966327539</v>
       </c>
       <c r="E15">
-        <v>7.209198106221789</v>
+        <v>12.84280987150908</v>
       </c>
       <c r="F15">
-        <v>24.58425126777595</v>
+        <v>36.43776798924566</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.874148623685159</v>
+        <v>10.13656445130471</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>7.236131716056421</v>
+        <v>10.95719083158072</v>
       </c>
       <c r="M15">
-        <v>15.47520489592019</v>
+        <v>17.32750338783001</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>18.02791131148593</v>
+        <v>28.02855430434787</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.9489248729217</v>
+        <v>19.75503213112902</v>
       </c>
       <c r="C16">
-        <v>14.30525257174395</v>
+        <v>10.56312895429614</v>
       </c>
       <c r="D16">
-        <v>4.989294408443707</v>
+        <v>7.99938133642409</v>
       </c>
       <c r="E16">
-        <v>7.268055369229557</v>
+        <v>12.86447628869599</v>
       </c>
       <c r="F16">
-        <v>24.40380237028942</v>
+        <v>36.50022299721449</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.918059693650311</v>
+        <v>10.15019350632211</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>7.142805040269147</v>
+        <v>10.94963822069058</v>
       </c>
       <c r="M16">
-        <v>15.07622094374414</v>
+        <v>17.24039051792208</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>17.96149890839708</v>
+        <v>28.08857814715416</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.39944733583517</v>
+        <v>19.55837856966187</v>
       </c>
       <c r="C17">
-        <v>14.08963536718436</v>
+        <v>10.46699229366441</v>
       </c>
       <c r="D17">
-        <v>4.960483629855619</v>
+        <v>7.998529807932285</v>
       </c>
       <c r="E17">
-        <v>7.30466100028841</v>
+        <v>12.87807770121614</v>
       </c>
       <c r="F17">
-        <v>24.30164771030306</v>
+        <v>36.54100951890916</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.945213581691866</v>
+        <v>10.15873256415344</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>7.085594622940761</v>
+        <v>10.94526894542937</v>
       </c>
       <c r="M17">
-        <v>14.8274574934771</v>
+        <v>17.18718026079912</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>17.92768482246373</v>
+        <v>28.12722241004089</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.07855664185873</v>
+        <v>19.44451578194948</v>
       </c>
       <c r="C18">
-        <v>13.9642765147017</v>
+        <v>10.41122849539168</v>
       </c>
       <c r="D18">
-        <v>4.943985783423966</v>
+        <v>7.998103510236877</v>
       </c>
       <c r="E18">
-        <v>7.325900343390095</v>
+        <v>12.88601494205498</v>
       </c>
       <c r="F18">
-        <v>24.24596861787058</v>
+        <v>36.56537561050349</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.960914128081404</v>
+        <v>10.16370960132937</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>7.052711141974215</v>
+        <v>10.94285338564991</v>
       </c>
       <c r="M18">
-        <v>14.68292628735561</v>
+        <v>17.156666806557</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>17.91071096943015</v>
+        <v>28.15011763520762</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.96907336606638</v>
+        <v>19.40583812493968</v>
       </c>
       <c r="C19">
-        <v>13.9216032309142</v>
+        <v>10.39226870382453</v>
       </c>
       <c r="D19">
-        <v>4.938412702120268</v>
+        <v>7.99797009675335</v>
       </c>
       <c r="E19">
-        <v>7.333123495080144</v>
+        <v>12.88872196858375</v>
       </c>
       <c r="F19">
-        <v>24.2276391324638</v>
+        <v>36.57378111055954</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.966244486212916</v>
+        <v>10.16540602172612</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>7.041581882432816</v>
+        <v>10.94205231739906</v>
       </c>
       <c r="M19">
-        <v>14.63374380579392</v>
+        <v>17.14635187447148</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>17.90538225560435</v>
+        <v>28.15798417662051</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.45844097289713</v>
+        <v>19.57939145150646</v>
       </c>
       <c r="C20">
-        <v>14.11272737369316</v>
+        <v>10.4772750136375</v>
       </c>
       <c r="D20">
-        <v>4.963543043905611</v>
+        <v>7.998613889783303</v>
       </c>
       <c r="E20">
-        <v>7.30074518138207</v>
+        <v>12.87661800720425</v>
       </c>
       <c r="F20">
-        <v>24.31220229589206</v>
+        <v>36.53657383547846</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.942314548090182</v>
+        <v>10.157816781338</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>7.091682604917171</v>
+        <v>10.94572397943472</v>
       </c>
       <c r="M20">
-        <v>14.85408926302748</v>
+        <v>17.19283525060277</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>17.93102661982583</v>
+        <v>28.12303948903077</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.04497391824972</v>
+        <v>20.15325243070719</v>
       </c>
       <c r="C21">
-        <v>14.73875239916056</v>
+        <v>10.75719063129969</v>
       </c>
       <c r="D21">
-        <v>5.048839062564169</v>
+        <v>8.001533801250821</v>
       </c>
       <c r="E21">
-        <v>7.194155230981426</v>
+        <v>12.83731160972676</v>
       </c>
       <c r="F21">
-        <v>24.63353125754342</v>
+        <v>36.42240916565146</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.862875864166652</v>
+        <v>10.13310062436597</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>7.260234590803492</v>
+        <v>10.95922196487213</v>
       </c>
       <c r="M21">
-        <v>15.57696292453085</v>
+        <v>17.35005988471353</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>18.04725677510551</v>
+        <v>28.01362158553788</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.03939073436169</v>
+        <v>20.52083321655464</v>
       </c>
       <c r="C22">
-        <v>15.13567847231816</v>
+        <v>10.93567578680527</v>
       </c>
       <c r="D22">
-        <v>5.105194293985214</v>
+        <v>8.004002570610272</v>
       </c>
       <c r="E22">
-        <v>7.126105532194845</v>
+        <v>12.81263350792646</v>
       </c>
       <c r="F22">
-        <v>24.87224702732506</v>
+        <v>36.35590881353632</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.811625798005255</v>
+        <v>10.1175280296252</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>7.370452529149785</v>
+        <v>10.96890118889101</v>
       </c>
       <c r="M22">
-        <v>16.03609690191575</v>
+        <v>17.45348459429822</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>18.14675417103342</v>
+        <v>27.94808833788178</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.51250461913063</v>
+        <v>20.32536723465649</v>
       </c>
       <c r="C23">
-        <v>14.92496027737965</v>
+        <v>10.84083566395279</v>
       </c>
       <c r="D23">
-        <v>5.075062687391052</v>
+        <v>8.002633900706785</v>
       </c>
       <c r="E23">
-        <v>7.162278905281594</v>
+        <v>12.82571241176064</v>
       </c>
       <c r="F23">
-        <v>24.742152224079</v>
+        <v>36.39065718581891</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.838921129799517</v>
+        <v>10.12578642785771</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>7.31162809216645</v>
+        <v>10.9636572882052</v>
       </c>
       <c r="M23">
-        <v>15.7922821522304</v>
+        <v>17.39823077528665</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>18.09142577721145</v>
+        <v>27.98251634024155</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.43178549579069</v>
+        <v>19.56989402324655</v>
       </c>
       <c r="C24">
-        <v>14.1022918275946</v>
+        <v>10.47262773003469</v>
       </c>
       <c r="D24">
-        <v>4.962159677189856</v>
+        <v>7.998575679298731</v>
       </c>
       <c r="E24">
-        <v>7.302514917619372</v>
+        <v>12.87727756847588</v>
       </c>
       <c r="F24">
-        <v>24.30742107938253</v>
+        <v>36.53857635077513</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.943624921964724</v>
+        <v>10.15823059545558</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>7.088930203137571</v>
+        <v>10.94551795818409</v>
       </c>
       <c r="M24">
-        <v>14.84205375021435</v>
+        <v>17.1902783856304</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>17.92950812791499</v>
+        <v>28.12492847558199</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.00175811120448</v>
+        <v>18.72675575454442</v>
       </c>
       <c r="C25">
-        <v>13.16390277740533</v>
+        <v>10.05774446811624</v>
       </c>
       <c r="D25">
-        <v>4.843210134896221</v>
+        <v>7.996627718330883</v>
       </c>
       <c r="E25">
-        <v>7.460865057423927</v>
+        <v>12.93726306837042</v>
       </c>
       <c r="F25">
-        <v>23.95526240519257</v>
+        <v>36.7327728639119</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.059746954824914</v>
+        <v>10.19573686370757</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.849672099864912</v>
+        <v>10.92968630897107</v>
       </c>
       <c r="M25">
-        <v>13.76208973854243</v>
+        <v>16.96955775103271</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>17.84855600164335</v>
+        <v>28.30406686319026</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_219/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_219/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.08625015614325</v>
+        <v>21.04911601560827</v>
       </c>
       <c r="C2">
-        <v>9.738717452883067</v>
+        <v>12.43122091442294</v>
       </c>
       <c r="D2">
-        <v>7.997305569775516</v>
+        <v>4.75830529746922</v>
       </c>
       <c r="E2">
-        <v>12.98521812365697</v>
+        <v>7.583746059100036</v>
       </c>
       <c r="F2">
-        <v>36.90534111957079</v>
+        <v>23.78851575382773</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.22553441222674</v>
+        <v>6.148323721304249</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.92129140794003</v>
+        <v>6.67514597183881</v>
       </c>
       <c r="M2">
-        <v>16.81086850035017</v>
+        <v>12.92276729078547</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>28.45777371119365</v>
+        <v>17.86119672746437</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.64250469793264</v>
+        <v>19.67797993839951</v>
       </c>
       <c r="C3">
-        <v>9.515025990553843</v>
+        <v>11.91017985311523</v>
       </c>
       <c r="D3">
-        <v>7.999093464023706</v>
+        <v>4.702564112137293</v>
       </c>
       <c r="E3">
-        <v>13.02009814429155</v>
+        <v>7.671043968928207</v>
       </c>
       <c r="F3">
-        <v>37.0406313354654</v>
+        <v>23.72891438083321</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.24710118614279</v>
+        <v>6.210429091485311</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.91766058614524</v>
+        <v>6.558345118579735</v>
       </c>
       <c r="M3">
-        <v>16.70607724895481</v>
+        <v>12.32869039766828</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>28.57547145604962</v>
+        <v>17.91056053023747</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.36624223006096</v>
+        <v>18.79466055418838</v>
       </c>
       <c r="C4">
-        <v>9.374347221146962</v>
+        <v>11.57885881090331</v>
       </c>
       <c r="D4">
-        <v>8.000850131173173</v>
+        <v>4.669270886588984</v>
       </c>
       <c r="E4">
-        <v>13.04269451355871</v>
+        <v>7.726659784694339</v>
       </c>
       <c r="F4">
-        <v>37.13270598905642</v>
+        <v>23.71713037442139</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.26102417996165</v>
+        <v>6.249634393439487</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.91645423496703</v>
+        <v>6.487518934918153</v>
       </c>
       <c r="M4">
-        <v>16.64321381675943</v>
+        <v>11.95246985135439</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>28.65438626626417</v>
+        <v>17.95957109765576</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.25286273582108</v>
+        <v>18.42326501688332</v>
       </c>
       <c r="C5">
-        <v>9.316240138901613</v>
+        <v>11.44109961553893</v>
       </c>
       <c r="D5">
-        <v>8.001732233848667</v>
+        <v>4.655944845777498</v>
       </c>
       <c r="E5">
-        <v>13.05220020832657</v>
+        <v>7.749834669110194</v>
       </c>
       <c r="F5">
-        <v>37.17248566416525</v>
+        <v>23.71833217854654</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.26686966170441</v>
+        <v>6.265887218734013</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.91622105425582</v>
+        <v>6.458905682684602</v>
       </c>
       <c r="M5">
-        <v>16.61798642928898</v>
+        <v>11.79645785668097</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>28.68821249252116</v>
+        <v>17.98403565996779</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.23399251259574</v>
+        <v>18.36090637289114</v>
       </c>
       <c r="C6">
-        <v>9.306546200830699</v>
+        <v>11.41806310970822</v>
       </c>
       <c r="D6">
-        <v>8.001888763253156</v>
+        <v>4.653746830946131</v>
       </c>
       <c r="E6">
-        <v>13.05379661286617</v>
+        <v>7.75371383162388</v>
       </c>
       <c r="F6">
-        <v>37.17922727479143</v>
+        <v>23.71888735158687</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.26785068826062</v>
+        <v>6.268602869076859</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.91619797577651</v>
+        <v>6.454170250575916</v>
       </c>
       <c r="M6">
-        <v>16.61382151245772</v>
+        <v>11.7703950318798</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>28.69392992849923</v>
+        <v>17.98836320565831</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.36471618393429</v>
+        <v>18.78969800202887</v>
       </c>
       <c r="C7">
-        <v>9.373566644749017</v>
+        <v>11.57701187209833</v>
       </c>
       <c r="D7">
-        <v>8.000861353655701</v>
+        <v>4.669090181391767</v>
       </c>
       <c r="E7">
-        <v>13.04282150509225</v>
+        <v>7.72697025449672</v>
       </c>
       <c r="F7">
-        <v>37.13323333531011</v>
+        <v>23.7171225885179</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.26110231806797</v>
+        <v>6.249852457150703</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.9164500423757</v>
+        <v>6.487132005056048</v>
       </c>
       <c r="M7">
-        <v>16.64287198890557</v>
+        <v>11.95037648671951</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>28.65483571090583</v>
+        <v>17.95988312204399</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.93412649843798</v>
+        <v>20.58133054057033</v>
       </c>
       <c r="C8">
-        <v>9.662314023781253</v>
+        <v>12.25400008645011</v>
       </c>
       <c r="D8">
-        <v>7.997785624862069</v>
+        <v>4.738896436335504</v>
       </c>
       <c r="E8">
-        <v>12.99700034779667</v>
+        <v>7.613430941231162</v>
       </c>
       <c r="F8">
-        <v>36.95011639964445</v>
+        <v>23.76267639374036</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.23282963271189</v>
+        <v>6.169519212773316</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.91982790202492</v>
+        <v>6.634703352631766</v>
       </c>
       <c r="M8">
-        <v>16.77444057034852</v>
+        <v>12.72040711346115</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>28.49697380729973</v>
+        <v>17.8742090328199</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.01415583286884</v>
+        <v>23.84545660847014</v>
       </c>
       <c r="C9">
-        <v>10.19972357362072</v>
+        <v>13.48665542254585</v>
       </c>
       <c r="D9">
-        <v>7.996957290825876</v>
+        <v>4.882879432757416</v>
       </c>
       <c r="E9">
-        <v>12.91647073980015</v>
+        <v>7.406560767929718</v>
       </c>
       <c r="F9">
-        <v>36.66274751145453</v>
+        <v>24.05896151436719</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.1827654314856</v>
+        <v>6.020174930519161</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.93451580147236</v>
+        <v>6.930069831864073</v>
       </c>
       <c r="M9">
-        <v>17.04336286279494</v>
+        <v>14.13298546019382</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>28.24032636897388</v>
+        <v>17.86403783592376</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.77736692925943</v>
+        <v>26.01096973124247</v>
       </c>
       <c r="C10">
-        <v>10.57403431950758</v>
+        <v>14.32967314330116</v>
       </c>
       <c r="D10">
-        <v>7.999487087164724</v>
+        <v>4.99259170172841</v>
       </c>
       <c r="E10">
-        <v>12.86293971281614</v>
+        <v>7.263903336727545</v>
       </c>
       <c r="F10">
-        <v>36.49569197463769</v>
+        <v>24.41588053092067</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.14922801773629</v>
+        <v>5.91497218821014</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.95014996457139</v>
+        <v>7.149335685645373</v>
       </c>
       <c r="M10">
-        <v>17.24647410129748</v>
+        <v>15.10440865863081</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>28.08425919176382</v>
+        <v>17.96569786282719</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.11649095246747</v>
+        <v>26.94465517558938</v>
       </c>
       <c r="C11">
-        <v>10.73930793975763</v>
+        <v>14.69889530778412</v>
       </c>
       <c r="D11">
-        <v>8.001311853207463</v>
+        <v>5.043275829940237</v>
       </c>
       <c r="E11">
-        <v>12.83979961382768</v>
+        <v>7.200967594806144</v>
       </c>
       <c r="F11">
-        <v>36.42933460500373</v>
+        <v>24.61105611574616</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.13466829144124</v>
+        <v>5.867983403737228</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.95829715904485</v>
+        <v>7.249307099182531</v>
       </c>
       <c r="M11">
-        <v>17.33983062985395</v>
+        <v>15.53089180786924</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>28.02036374992901</v>
+        <v>18.03837666956338</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.24363613226981</v>
+        <v>27.29092627692338</v>
       </c>
       <c r="C12">
-        <v>10.80113195028808</v>
+        <v>14.83661758792431</v>
       </c>
       <c r="D12">
-        <v>8.002099062000571</v>
+        <v>5.062573794036274</v>
       </c>
       <c r="E12">
-        <v>12.83121044968222</v>
+        <v>7.177412300111563</v>
       </c>
       <c r="F12">
-        <v>36.40559796223476</v>
+        <v>24.68987622749615</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.12925452808322</v>
+        <v>5.850305158601028</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.96152957711779</v>
+        <v>7.28717572537933</v>
       </c>
       <c r="M12">
-        <v>17.37529927681542</v>
+        <v>15.69011189599534</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>27.99719315660426</v>
+        <v>18.06991925375244</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.21631150781764</v>
+        <v>27.21667345217317</v>
       </c>
       <c r="C13">
-        <v>10.78785154747384</v>
+        <v>14.80705030982245</v>
       </c>
       <c r="D13">
-        <v>8.001925255031688</v>
+        <v>5.05841306055941</v>
       </c>
       <c r="E13">
-        <v>12.83305257517595</v>
+        <v>7.182473105076172</v>
       </c>
       <c r="F13">
-        <v>36.41064810084859</v>
+        <v>24.67267952000133</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.130416052837</v>
+        <v>5.854107510967898</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.96082689513907</v>
+        <v>7.279019834426896</v>
       </c>
       <c r="M13">
-        <v>17.3676556291827</v>
+        <v>15.65592320671567</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>28.00213769526436</v>
+        <v>18.06294372282468</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.12697741001229</v>
+        <v>26.97328873904094</v>
       </c>
       <c r="C14">
-        <v>10.7444097297568</v>
+        <v>14.71026797033547</v>
       </c>
       <c r="D14">
-        <v>8.001374693286428</v>
+        <v>5.044861416304428</v>
       </c>
       <c r="E14">
-        <v>12.83908950520639</v>
+        <v>7.199024159957451</v>
       </c>
       <c r="F14">
-        <v>36.42735385899771</v>
+        <v>24.61744119782762</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.13422090270672</v>
+        <v>5.866526747933668</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.95856015026626</v>
+        <v>7.252422453790373</v>
       </c>
       <c r="M14">
-        <v>17.34274644454404</v>
+        <v>15.54403692709362</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>28.01843692046532</v>
+        <v>18.0408898739654</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.07208859522178</v>
+        <v>26.8232614956572</v>
       </c>
       <c r="C15">
-        <v>10.71769999609069</v>
+        <v>14.65071223253184</v>
       </c>
       <c r="D15">
-        <v>8.001049966327539</v>
+        <v>5.036574131204784</v>
       </c>
       <c r="E15">
-        <v>12.84280987150908</v>
+        <v>7.209198106221852</v>
       </c>
       <c r="F15">
-        <v>36.43776798924566</v>
+        <v>24.58425126777603</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.13656445130471</v>
+        <v>5.874148623685191</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.95719083158072</v>
+        <v>7.236131716056421</v>
       </c>
       <c r="M15">
-        <v>17.32750338783001</v>
+        <v>15.47520489592017</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>28.02855430434787</v>
+        <v>18.02791131148598</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.75503213112902</v>
+        <v>25.94892487292165</v>
       </c>
       <c r="C16">
-        <v>10.56312895429614</v>
+        <v>14.30525257174398</v>
       </c>
       <c r="D16">
-        <v>7.99938133642409</v>
+        <v>4.989294408443758</v>
       </c>
       <c r="E16">
-        <v>12.86447628869599</v>
+        <v>7.268055369229627</v>
       </c>
       <c r="F16">
-        <v>36.50022299721449</v>
+        <v>24.40380237028948</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.15019350632211</v>
+        <v>5.918059693650376</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.94963822069058</v>
+        <v>7.142805040269153</v>
       </c>
       <c r="M16">
-        <v>17.24039051792208</v>
+        <v>15.07622094374414</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>28.08857814715416</v>
+        <v>17.96149890839714</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.55837856966187</v>
+        <v>25.39944733583517</v>
       </c>
       <c r="C17">
-        <v>10.46699229366441</v>
+        <v>14.08963536718443</v>
       </c>
       <c r="D17">
-        <v>7.998529807932285</v>
+        <v>4.960483629855546</v>
       </c>
       <c r="E17">
-        <v>12.87807770121614</v>
+        <v>7.30466100028822</v>
       </c>
       <c r="F17">
-        <v>36.54100951890916</v>
+        <v>24.30164771030291</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.15873256415344</v>
+        <v>5.945213581691831</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.94526894542937</v>
+        <v>7.085594622940706</v>
       </c>
       <c r="M17">
-        <v>17.18718026079912</v>
+        <v>14.82745749347708</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>28.12722241004089</v>
+        <v>17.92768482246363</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.44451578194948</v>
+        <v>25.07855664185869</v>
       </c>
       <c r="C18">
-        <v>10.41122849539168</v>
+        <v>13.96427651470183</v>
       </c>
       <c r="D18">
-        <v>7.998103510236877</v>
+        <v>4.943985783423859</v>
       </c>
       <c r="E18">
-        <v>12.88601494205498</v>
+        <v>7.325900343390096</v>
       </c>
       <c r="F18">
-        <v>36.56537561050349</v>
+        <v>24.24596861787064</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.16370960132937</v>
+        <v>5.960914128081369</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.94285338564991</v>
+        <v>7.05271114197408</v>
       </c>
       <c r="M18">
-        <v>17.156666806557</v>
+        <v>14.68292628735559</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>28.15011763520762</v>
+        <v>17.91071096943024</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.40583812493968</v>
+        <v>24.96907336606638</v>
       </c>
       <c r="C19">
-        <v>10.39226870382453</v>
+        <v>13.92160323091411</v>
       </c>
       <c r="D19">
-        <v>7.99797009675335</v>
+        <v>4.938412702120211</v>
       </c>
       <c r="E19">
-        <v>12.88872196858375</v>
+        <v>7.333123495080081</v>
       </c>
       <c r="F19">
-        <v>36.57378111055954</v>
+        <v>24.22763913246376</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.16540602172612</v>
+        <v>5.966244486212849</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.94205231739906</v>
+        <v>7.041581882432799</v>
       </c>
       <c r="M19">
-        <v>17.14635187447148</v>
+        <v>14.63374380579391</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>28.15798417662051</v>
+        <v>17.9053822556043</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.57939145150646</v>
+        <v>25.45844097289713</v>
       </c>
       <c r="C20">
-        <v>10.4772750136375</v>
+        <v>14.11272737369325</v>
       </c>
       <c r="D20">
-        <v>7.998613889783303</v>
+        <v>4.963543043905606</v>
       </c>
       <c r="E20">
-        <v>12.87661800720425</v>
+        <v>7.300745181382267</v>
       </c>
       <c r="F20">
-        <v>36.53657383547846</v>
+        <v>24.31220229589204</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.157816781338</v>
+        <v>5.942314548090248</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.94572397943472</v>
+        <v>7.091682604917217</v>
       </c>
       <c r="M20">
-        <v>17.19283525060277</v>
+        <v>14.85408926302751</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>28.12303948903077</v>
+        <v>17.93102661982581</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.15325243070719</v>
+        <v>27.04497391824975</v>
       </c>
       <c r="C21">
-        <v>10.75719063129969</v>
+        <v>14.7387523991604</v>
       </c>
       <c r="D21">
-        <v>8.001533801250821</v>
+        <v>5.048839062564174</v>
       </c>
       <c r="E21">
-        <v>12.83731160972676</v>
+        <v>7.194155230981298</v>
       </c>
       <c r="F21">
-        <v>36.42240916565146</v>
+        <v>24.63353125754337</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.13310062436597</v>
+        <v>5.862875864166551</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.95922196487213</v>
+        <v>7.260234590803456</v>
       </c>
       <c r="M21">
-        <v>17.35005988471353</v>
+        <v>15.57696292453082</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>28.01362158553788</v>
+        <v>18.04725677510546</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.52083321655464</v>
+        <v>28.03939073436167</v>
       </c>
       <c r="C22">
-        <v>10.93567578680527</v>
+        <v>15.13567847231817</v>
       </c>
       <c r="D22">
-        <v>8.004002570610272</v>
+        <v>5.105194293985306</v>
       </c>
       <c r="E22">
-        <v>12.81263350792646</v>
+        <v>7.126105532194912</v>
       </c>
       <c r="F22">
-        <v>36.35590881353632</v>
+        <v>24.87224702732514</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.1175280296252</v>
+        <v>5.811625798005255</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.96890118889101</v>
+        <v>7.370452529149822</v>
       </c>
       <c r="M22">
-        <v>17.45348459429822</v>
+        <v>16.03609690191577</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>27.94808833788178</v>
+        <v>18.14675417103349</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.32536723465649</v>
+        <v>27.51250461913065</v>
       </c>
       <c r="C23">
-        <v>10.84083566395279</v>
+        <v>14.92496027737947</v>
       </c>
       <c r="D23">
-        <v>8.002633900706785</v>
+        <v>5.075062687390912</v>
       </c>
       <c r="E23">
-        <v>12.82571241176064</v>
+        <v>7.162278905281531</v>
       </c>
       <c r="F23">
-        <v>36.39065718581891</v>
+        <v>24.74215222407902</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.12578642785771</v>
+        <v>5.838921129799584</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.9636572882052</v>
+        <v>7.311628092166512</v>
       </c>
       <c r="M23">
-        <v>17.39823077528665</v>
+        <v>15.7922821522304</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>27.98251634024155</v>
+        <v>18.09142577721153</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.56989402324655</v>
+        <v>25.43178549579067</v>
       </c>
       <c r="C24">
-        <v>10.47262773003469</v>
+        <v>14.10229182759473</v>
       </c>
       <c r="D24">
-        <v>7.998575679298731</v>
+        <v>4.962159677189783</v>
       </c>
       <c r="E24">
-        <v>12.87727756847588</v>
+        <v>7.302514917619368</v>
       </c>
       <c r="F24">
-        <v>36.53857635077513</v>
+        <v>24.30742107938265</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.15823059545558</v>
+        <v>5.943624921964793</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.94551795818409</v>
+        <v>7.088930203137525</v>
       </c>
       <c r="M24">
-        <v>17.1902783856304</v>
+        <v>14.84205375021437</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>28.12492847558199</v>
+        <v>17.9295081279151</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.72675575454442</v>
+        <v>23.00175811120456</v>
       </c>
       <c r="C25">
-        <v>10.05774446811624</v>
+        <v>13.1639027774052</v>
       </c>
       <c r="D25">
-        <v>7.996627718330883</v>
+        <v>4.843210134896098</v>
       </c>
       <c r="E25">
-        <v>12.93726306837042</v>
+        <v>7.460865057423726</v>
       </c>
       <c r="F25">
-        <v>36.7327728639119</v>
+        <v>23.95526240519236</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.19573686370757</v>
+        <v>6.059746954824882</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.92968630897107</v>
+        <v>6.84967209986483</v>
       </c>
       <c r="M25">
-        <v>16.96955775103271</v>
+        <v>13.7620897385424</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>28.30406686319026</v>
+        <v>17.84855600164325</v>
       </c>
     </row>
   </sheetData>
